--- a/data/raw_data/2015/permits-issued-by-nationality-2015.xlsx
+++ b/data/raw_data/2015/permits-issued-by-nationality-2015.xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2015\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1996973F-CF9D-45F3-993F-BBE25C94BEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="15570" windowHeight="11760"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nationality" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nationality!$A$1:$G$113</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>Year</t>
   </si>
@@ -97,9 +117,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -115,12 +132,6 @@
     <t>Kazakhstan</t>
   </si>
   <si>
-    <t>Korea (Republic of (South))</t>
-  </si>
-  <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -130,12 +141,6 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>Libyan Arab Jamahiriya</t>
-  </si>
-  <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
@@ -145,9 +150,6 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
@@ -172,21 +174,9 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
     <t>Singapore</t>
   </si>
   <si>
@@ -199,9 +189,6 @@
     <t>Sudan</t>
   </si>
   <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -226,12 +213,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Uzbekistan</t>
   </si>
   <si>
@@ -259,9 +240,6 @@
     <t>Mauritania</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -292,18 +270,12 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Congo, The Democratic Republic of the</t>
-  </si>
-  <si>
     <t>Cuba</t>
   </si>
   <si>
     <t>Ghana</t>
   </si>
   <si>
-    <t>Kosova</t>
-  </si>
-  <si>
     <t>Latvia</t>
   </si>
   <si>
@@ -313,21 +285,12 @@
     <t>Senegal</t>
   </si>
   <si>
-    <t>Tanzania, United Republic of</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -340,9 +303,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -364,16 +324,46 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>Paraguay</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Saint Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,6 +435,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -492,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,9 +518,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,6 +570,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,11 +762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +826,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
@@ -843,7 +870,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -865,7 +892,7 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -887,7 +914,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -931,7 +958,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -975,7 +1002,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
@@ -1151,7 +1178,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
@@ -1261,7 +1288,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1283,7 +1310,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1305,7 +1332,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1327,7 +1354,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -1415,7 +1442,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -1437,7 +1464,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -1481,7 +1508,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C34" s="4">
         <v>8</v>
@@ -1503,7 +1530,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
@@ -1525,7 +1552,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -1547,7 +1574,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1569,7 +1596,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1635,7 +1662,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="C41" s="4">
         <v>14</v>
@@ -1657,7 +1684,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="4">
         <v>18</v>
@@ -1679,7 +1706,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="4">
         <v>213</v>
@@ -1701,7 +1728,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
@@ -1723,7 +1750,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="4">
         <v>81</v>
@@ -1745,7 +1772,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4">
         <v>27</v>
@@ -1767,7 +1794,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4">
         <v>6</v>
@@ -1789,7 +1816,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C48" s="4">
         <v>8</v>
@@ -1811,7 +1838,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1833,7 +1860,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C50" s="4">
         <v>26</v>
@@ -1855,7 +1882,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1877,7 +1904,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -1899,7 +1926,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C53" s="4">
         <v>6</v>
@@ -1921,7 +1948,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
@@ -1943,7 +1970,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C55" s="4">
         <v>24</v>
@@ -1965,7 +1992,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C56" s="4">
         <v>4</v>
@@ -1987,7 +2014,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C57" s="4">
         <v>1</v>
@@ -2009,7 +2036,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C58" s="4">
         <v>4</v>
@@ -2031,7 +2058,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C59" s="4">
         <v>2</v>
@@ -2053,7 +2080,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C60" s="4">
         <v>162</v>
@@ -2075,7 +2102,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2097,7 +2124,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C62" s="4">
         <v>38</v>
@@ -2119,7 +2146,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C63" s="4">
         <v>16</v>
@@ -2141,7 +2168,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C64" s="4">
         <v>1</v>
@@ -2163,7 +2190,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C65" s="4">
         <v>1</v>
@@ -2185,7 +2212,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C66" s="4">
         <v>7</v>
@@ -2207,7 +2234,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C67" s="4">
         <v>1</v>
@@ -2216,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E114" si="1">SUM(C67:D67)</f>
+        <f t="shared" ref="E67:E113" si="1">SUM(C67:D67)</f>
         <v>1</v>
       </c>
       <c r="F67" s="5">
@@ -2229,7 +2256,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C68" s="4">
         <v>9</v>
@@ -2251,7 +2278,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C69" s="4">
         <v>34</v>
@@ -2273,7 +2300,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
@@ -2295,7 +2322,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C71" s="4">
         <v>96</v>
@@ -2317,7 +2344,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C72" s="4">
         <v>2</v>
@@ -2339,7 +2366,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C73" s="4">
         <v>724</v>
@@ -2361,7 +2388,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
@@ -2383,7 +2410,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
@@ -2405,7 +2432,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
@@ -2427,7 +2454,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
@@ -2449,7 +2476,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C78" s="4">
         <v>5</v>
@@ -2471,7 +2498,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C79" s="4">
         <v>121</v>
@@ -2493,7 +2520,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C80" s="4">
         <v>6</v>
@@ -2515,7 +2542,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C81" s="4">
         <v>178</v>
@@ -2537,7 +2564,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -2559,7 +2586,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C83" s="4">
         <v>2</v>
@@ -2581,7 +2608,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C84" s="4">
         <v>2</v>
@@ -2603,7 +2630,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2625,7 +2652,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C86" s="4">
         <v>13</v>
@@ -2647,7 +2674,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C87" s="4">
         <v>5</v>
@@ -2669,7 +2696,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C88" s="4">
         <v>20</v>
@@ -2691,7 +2718,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -2713,7 +2740,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C90" s="4">
         <v>102</v>
@@ -2735,7 +2762,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C91" s="4">
         <v>34</v>
@@ -2757,7 +2784,7 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C92" s="4">
         <v>204</v>
@@ -2779,7 +2806,7 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C93" s="4">
         <v>16</v>
@@ -2801,7 +2828,7 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
@@ -2823,7 +2850,7 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2845,7 +2872,7 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C96" s="4">
         <v>11</v>
@@ -2867,7 +2894,7 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C97" s="4">
         <v>12</v>
@@ -2889,7 +2916,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C98" s="4">
         <v>7</v>
@@ -2911,7 +2938,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C99" s="4">
         <v>139</v>
@@ -2933,7 +2960,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C100" s="4">
         <v>1</v>
@@ -2955,7 +2982,7 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C101" s="4">
         <v>2</v>
@@ -2977,7 +3004,7 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C102" s="4">
         <v>126</v>
@@ -2999,7 +3026,7 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C103" s="4">
         <v>7</v>
@@ -3021,7 +3048,7 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C104" s="4">
         <v>0</v>
@@ -3043,7 +3070,7 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
@@ -3065,7 +3092,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C106" s="4">
         <v>618</v>
@@ -3087,7 +3114,7 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C107" s="4">
         <v>4</v>
@@ -3109,7 +3136,7 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C108" s="4">
         <v>52</v>
@@ -3131,7 +3158,7 @@
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="4" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C109" s="4">
         <v>1</v>
@@ -3153,7 +3180,7 @@
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C110" s="4">
         <v>8</v>
@@ -3175,7 +3202,7 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="5" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -3197,7 +3224,7 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C112" s="4">
         <v>3</v>
@@ -3219,7 +3246,7 @@
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C113" s="4">
         <v>9</v>
@@ -3242,6 +3269,7 @@
       <c r="E114" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
